--- a/biology/Médecine/Amoxicilline/Amoxicilline.xlsx
+++ b/biology/Médecine/Amoxicilline/Amoxicilline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'amoxicilline est un antibiotique β-lactamine bactéricide de la famille des aminopénicillines indiqué dans le traitement des infections bactériennes à germes sensibles. L'amoxicilline est l'antibiotique le plus couramment utilisé, notamment chez les enfants, car elle présente une bonne absorption par voie orale, un spectre d'action antimicrobien large et un coût faible. Elle fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé [2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'amoxicilline est un antibiotique β-lactamine bactéricide de la famille des aminopénicillines indiqué dans le traitement des infections bactériennes à germes sensibles. L'amoxicilline est l'antibiotique le plus couramment utilisé, notamment chez les enfants, car elle présente une bonne absorption par voie orale, un spectre d'action antimicrobien large et un coût faible. Elle fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé . 
 La molécule d'amoxicilline est parfois utilisée en combinaison avec une autre molécule, l'acide clavulanique, un inhibiteur de la bêta-lactamase. Cette association a pour but de stopper l'inactivation de l'amoxicilline par les bêta-lactamases, et ainsi de lui permettre d'être actif sur les germes résistants par production des bêta-lactamases à sérine active, pénicillinases plasmidiques (type TE), des pénicillinases chromosomiques et des céphalosporinases chromosomiques.
 Il est utilisé dans le traitement de diverses maladies infectieuses, notamment celles des poumons, des bronches, du nez, de la gorge ou des oreilles, du sang, de l'appareil digestif ou urinaire, des voies génitales, des gencives et des dents. Il est également utilisé dans le cadre de l'éradication d'Helicobacter pylori (responsable d'ulcères gastro-duodénaux récidivants), dans la maladie de Lyme et dans la prévention de l'endocardite bactérienne.
 En France, la délivrance de spécialités pharmaceutiques contenant de l'amoxicilline est soumise à prescription médicale. 
-La molécule est produite par culture des champignons de l'espèce Penicillium chrysogenum, couplée à une hémisynthèse[3].
+La molécule est produite par culture des champignons de l'espèce Penicillium chrysogenum, couplée à une hémisynthèse.
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Principalement, comme tous les β-lactamines, l'amoxicilline interrompt le processus de transpeptidation qui lie les peptidoglycanes de la paroi bactérienne[4] en inhibant les protéines liant la péniciline (PLP)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Principalement, comme tous les β-lactamines, l'amoxicilline interrompt le processus de transpeptidation qui lie les peptidoglycanes de la paroi bactérienne en inhibant les protéines liant la péniciline (PLP).
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Elles sont limitées aux infections dues aux germes sensibles.
 Traitement des :
@@ -559,7 +575,7 @@
 infections digestives et biliaires ;
 maladie de Lyme : traitement de la phase primaire (érythème chronique migrant) et de la phase primosecondaire (érythème chronique migrant associé à des signes généraux : asthénies, céphalées, fièvre, arthralgies...) ;
 endocardites, septicémies.
-Traitement prophylactique de l'endocardite bactérienne[6].
+Traitement prophylactique de l'endocardite bactérienne.
 En association avec un autre antibiotique (clarithromycine ou imidazolé) et à un antisécrétoire, éradication de Helicobacter pylori en cas de maladie ulcéreuse gastroduodénale de l'adulte.</t>
         </is>
       </c>
@@ -588,9 +604,11 @@
           <t>Posologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dose d'amoxicilline utilisée en thérapeutique humaine s'échelonne de 25 à 150 mg kg−1 j−1 en deux à quatre prises, variant en fonction du mode d'administration, de l'infection à traiter[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dose d'amoxicilline utilisée en thérapeutique humaine s'échelonne de 25 à 150 mg kg−1 j−1 en deux à quatre prises, variant en fonction du mode d'administration, de l'infection à traiter.
 </t>
         </is>
       </c>
@@ -619,7 +637,9 @@
           <t>Germes habituellement sensibles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les streptocoques β-hémolytiques.
 Les Streptococcus pneumoniae (pneumocoque) : l'amoxicilline est utilisée dans le traitement de la pneumonie typique et de la méningite à pneumocoque (par voie parentérale dans ces cas-ci).
@@ -656,7 +676,9 @@
           <t>Voie d'administration</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour l'amoxicilline simple, ou combinée à l'acide clavulanique, l'administration se fait par voie orale ou intraveineuse (injection ou perfusion).
 </t>
@@ -687,7 +709,9 @@
           <t>Voie d'élimination</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amoxicilline, comme de nombreuses bêta-lactames, s'élimine par voie rénale.
 </t>
@@ -718,9 +742,11 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Liste des effets indésirables[7] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Liste des effets indésirables :
 allergies pouvant se manifester de façon plus ou moins grave : augmentation de certains globules blancs, œdème de Quincke, gêne respiratoire, exceptionnellement choc allergique ;
 éruption cutanée si prise lors d'une mononucléose infectieuse ;
 troubles digestifs : nausées, vomissements, diarrhées, colite pseudomembraneuse… ;
@@ -759,7 +785,9 @@
           <t>Interactions médicamenteuses</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amoxicilline augmente la concentration plasmatique du méthotrexate en ralentissant son élimination urinaire conduisant à un surdosage du méthotrexate. L'amoxicilline associée à l'allopurinol multiplierait les risques d'éruption cutanée.
 </t>
@@ -790,10 +818,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'amoxicilline est l'un des quelques dérivés hémisynthétiques de l'acide 6-aminopénicillanique (6-APA) développés par la société pharmaceutique britannique Beecham (aujourd'hui GSK) au début des années 70 à Brockham Park[8]. Après un essai clinique satisfaisant[9], et un dépôt de brevet[10], l'antibiotique est devenu disponible commercialement en 1972[11]. Ce fut la deuxième aminopénicilline à être synthétisée (après l'ampicilline en 1961).
-Fin 2022, de fortes tensions d'approvisionnement sont constatées à l'échelle mondiale[12]. Cette pénurie est due à la fois à l’augmentation de la demande, causée par les épidémies hivernales qui étaient précoces cette année, et à des difficultés de production, celle-ci ayant diminué lors de la pandémie de Covid-19, conduisant à une réduction voire un arrêt de certaines lignes de production, qui n’ont pas retrouvé leur capacité de production d’avant la pandémie[13].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'amoxicilline est l'un des quelques dérivés hémisynthétiques de l'acide 6-aminopénicillanique (6-APA) développés par la société pharmaceutique britannique Beecham (aujourd'hui GSK) au début des années 70 à Brockham Park. Après un essai clinique satisfaisant, et un dépôt de brevet, l'antibiotique est devenu disponible commercialement en 1972. Ce fut la deuxième aminopénicilline à être synthétisée (après l'ampicilline en 1961).
+Fin 2022, de fortes tensions d'approvisionnement sont constatées à l'échelle mondiale. Cette pénurie est due à la fois à l’augmentation de la demande, causée par les épidémies hivernales qui étaient précoces cette année, et à des difficultés de production, celle-ci ayant diminué lors de la pandémie de Covid-19, conduisant à une réduction voire un arrêt de certaines lignes de production, qui n’ont pas retrouvé leur capacité de production d’avant la pandémie.
 </t>
         </is>
       </c>
@@ -822,7 +852,9 @@
           <t>Noms commerciaux</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amoxicilline est ou a été commercialisée sous les noms suivants (outre les génériques) :
 Actimoxi
